--- a/medicine/Psychotrope/Ancien_couvent_des_Jacobins_de_Poligny/Ancien_couvent_des_Jacobins_de_Poligny.xlsx
+++ b/medicine/Psychotrope/Ancien_couvent_des_Jacobins_de_Poligny/Ancien_couvent_des_Jacobins_de_Poligny.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le couvent des Jacobins de Poligny est un ancien couvent Jacobins (ordre des Prêcheurs dominicains), et une église Notre-Dame de style gothique rayonnant du XIIIe siècle à Poligny dans le Jura en Bourgogne-Franche-Comté. Le couvent est classé aux monuments historiques depuis le 17 août en 1945[1], et héberge à ce jour le lycée hôtelier Hyacinthe Friant, et la Coopérative Viticole de Poligny du vignoble du Jura.
+Le couvent des Jacobins de Poligny est un ancien couvent Jacobins (ordre des Prêcheurs dominicains), et une église Notre-Dame de style gothique rayonnant du XIIIe siècle à Poligny dans le Jura en Bourgogne-Franche-Comté. Le couvent est classé aux monuments historiques depuis le 17 août en 1945, et héberge à ce jour le lycée hôtelier Hyacinthe Friant, et la Coopérative Viticole de Poligny du vignoble du Jura.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1221, le comte palatin Othon III de Bourgogne (arrière petit fils de l'empereur germanique Frédéric Barberousse et vassal du Saint-Empire romain germanique) fait édifier l'église collégiale dédiée à Notre-Dame au pied de son château fort de Poligny du IXe siècle, avec trois nefs et sans transept.
 			Tour de la Bibliothèque, avec clocheton à l'impériale à horloge
@@ -560,6 +574,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
